--- a/KM5c_data/ODP_Site_722.xlsx
+++ b/KM5c_data/ODP_Site_722.xlsx
@@ -549,13 +549,13 @@
         </is>
       </c>
       <c r="P2">
-        <v>26.13841919</v>
+        <v>26.1</v>
       </c>
       <c r="Q2">
-        <v>1.77158081</v>
+        <v>1.813480360243055</v>
       </c>
       <c r="R2">
-        <v>2.70084649</v>
+        <v>2.742746040243055</v>
       </c>
       <c r="S2">
         <v>0.4251515151515193</v>
